--- a/Jogos_do_Dia/2023-02-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1167,16 +1167,16 @@
         <v>3.28</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
         <v>2.15</v>
@@ -1197,13 +1197,13 @@
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1262,13 +1262,13 @@
         <v>127</v>
       </c>
       <c r="F4">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1283,10 +1283,10 @@
         <v>4.65</v>
       </c>
       <c r="M4">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="O4">
         <v>1.29</v>
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G5">
-        <v>3.05</v>
+        <v>3.34</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1387,10 +1387,10 @@
         <v>2.75</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1470,13 +1470,13 @@
         <v>129</v>
       </c>
       <c r="F6">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
-        <v>4.14</v>
+        <v>4.33</v>
       </c>
       <c r="H6">
-        <v>7.03</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1491,10 +1491,10 @@
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O6">
         <v>1.38</v>
@@ -1678,10 +1678,10 @@
         <v>131</v>
       </c>
       <c r="F8">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8">
         <v>3.75</v>
@@ -1782,13 +1782,13 @@
         <v>132</v>
       </c>
       <c r="F9">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="H9">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="I9">
         <v>1.06</v>
@@ -1803,10 +1803,10 @@
         <v>3.3</v>
       </c>
       <c r="M9">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -1854,7 +1854,7 @@
         <v>3.76</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE9">
         <v>1.3</v>
@@ -1886,13 +1886,13 @@
         <v>133</v>
       </c>
       <c r="F10">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1907,10 +1907,10 @@
         <v>3.6</v>
       </c>
       <c r="M10">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
         <v>1.39</v>
@@ -2094,37 +2094,37 @@
         <v>135</v>
       </c>
       <c r="F12">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>1.67</v>
@@ -2133,13 +2133,13 @@
         <v>2.1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -2157,28 +2157,28 @@
         <v>3.06</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2198,37 +2198,37 @@
         <v>136</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q13">
         <v>1.62</v>
@@ -2237,13 +2237,13 @@
         <v>2.2</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V13">
         <v>1.25</v>
@@ -2261,28 +2261,28 @@
         <v>3.05</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2302,37 +2302,37 @@
         <v>137</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H14">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q14">
         <v>1.57</v>
@@ -2341,13 +2341,13 @@
         <v>2.25</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V14">
         <v>2</v>
@@ -2365,28 +2365,28 @@
         <v>3</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2406,37 +2406,37 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -2445,13 +2445,13 @@
         <v>2.2</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V15">
         <v>1.88</v>
@@ -2469,28 +2469,28 @@
         <v>3.08</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2510,10 +2510,10 @@
         <v>139</v>
       </c>
       <c r="F16">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H16">
         <v>4.75</v>
@@ -2531,10 +2531,10 @@
         <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N16">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="O16">
         <v>1.34</v>
@@ -2614,13 +2614,13 @@
         <v>140</v>
       </c>
       <c r="F17">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H17">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2635,10 +2635,10 @@
         <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="N17">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>1.35</v>
@@ -2718,13 +2718,13 @@
         <v>141</v>
       </c>
       <c r="F18">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G18">
         <v>3.8</v>
       </c>
       <c r="H18">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>1.04</v>
@@ -2739,10 +2739,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N18">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O18">
         <v>1.33</v>
@@ -2822,7 +2822,7 @@
         <v>142</v>
       </c>
       <c r="F19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G19">
         <v>3.3</v>
@@ -2843,10 +2843,10 @@
         <v>3.72</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O19">
         <v>1.34</v>
@@ -2885,16 +2885,16 @@
         <v>3.24</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE19">
         <v>1.26</v>
@@ -2947,10 +2947,10 @@
         <v>2.75</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N20">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O20">
         <v>1.44</v>
@@ -3030,13 +3030,13 @@
         <v>144</v>
       </c>
       <c r="F21">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G21">
-        <v>3.75</v>
+        <v>4.34</v>
       </c>
       <c r="H21">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I21">
         <v>1.05</v>
@@ -3051,10 +3051,10 @@
         <v>3.1</v>
       </c>
       <c r="M21">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="N21">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O21">
         <v>1.44</v>
@@ -3114,7 +3114,7 @@
         <v>3.1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3134,37 +3134,37 @@
         <v>145</v>
       </c>
       <c r="F22">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G22">
         <v>3.5</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M22">
         <v>1.57</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
         <v>1.53</v>
@@ -3173,13 +3173,13 @@
         <v>2.38</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
         <v>1.45</v>
@@ -3197,28 +3197,28 @@
         <v>3.37</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3238,13 +3238,13 @@
         <v>146</v>
       </c>
       <c r="F23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I23">
         <v>1.1</v>
@@ -3259,10 +3259,10 @@
         <v>2.65</v>
       </c>
       <c r="M23">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O23">
         <v>1.56</v>
@@ -3342,13 +3342,13 @@
         <v>147</v>
       </c>
       <c r="F24">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="G24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="I24">
         <v>1.06</v>
@@ -3363,10 +3363,10 @@
         <v>3.57</v>
       </c>
       <c r="M24">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N24">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O24">
         <v>1.4</v>
@@ -3934,7 +3934,7 @@
         <v>2.25</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE29">
         <v>1.34</v>
@@ -4038,7 +4038,7 @@
         <v>3.32</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE30">
         <v>1.32</v>
@@ -4174,13 +4174,13 @@
         <v>155</v>
       </c>
       <c r="F32">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H32">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I32">
         <v>1.04</v>
@@ -4198,7 +4198,7 @@
         <v>1.75</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O32">
         <v>1.35</v>
@@ -4255,10 +4255,10 @@
         <v>2.38</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -4278,13 +4278,13 @@
         <v>156</v>
       </c>
       <c r="F33">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G33">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H33">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>157</v>
       </c>
       <c r="F34">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="G34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H34">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4486,13 +4486,13 @@
         <v>158</v>
       </c>
       <c r="F35">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>1.05</v>
@@ -4507,10 +4507,10 @@
         <v>3.5</v>
       </c>
       <c r="M35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
         <v>1.39</v>
@@ -4590,13 +4590,13 @@
         <v>159</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="G36">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H36">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>3.38</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -4694,13 +4694,13 @@
         <v>160</v>
       </c>
       <c r="F37">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G37">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H37">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="I37">
         <v>1.03</v>
@@ -4715,10 +4715,10 @@
         <v>4.33</v>
       </c>
       <c r="M37">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O37">
         <v>1.3</v>
@@ -4801,10 +4801,10 @@
         <v>2.05</v>
       </c>
       <c r="G38">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="H38">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I38">
         <v>1.08</v>
@@ -4819,10 +4819,10 @@
         <v>2.75</v>
       </c>
       <c r="M38">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="O38">
         <v>1.44</v>
@@ -4905,10 +4905,10 @@
         <v>2.1</v>
       </c>
       <c r="G39">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="H39">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="I39">
         <v>1.1</v>
@@ -4923,10 +4923,10 @@
         <v>2.75</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N39">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -5006,13 +5006,13 @@
         <v>163</v>
       </c>
       <c r="F40">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G40">
-        <v>4.2</v>
+        <v>4.54</v>
       </c>
       <c r="H40">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5110,13 +5110,13 @@
         <v>164</v>
       </c>
       <c r="F41">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G41">
         <v>3.5</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I41">
         <v>1.03</v>
@@ -5131,10 +5131,10 @@
         <v>4.33</v>
       </c>
       <c r="M41">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O41">
         <v>1.32</v>
@@ -5182,7 +5182,7 @@
         <v>2.63</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE41">
         <v>1.43</v>
@@ -5214,13 +5214,13 @@
         <v>165</v>
       </c>
       <c r="F42">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G42">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H42">
-        <v>2.51</v>
+        <v>2.37</v>
       </c>
       <c r="I42">
         <v>1.03</v>
@@ -5235,10 +5235,10 @@
         <v>3.04</v>
       </c>
       <c r="M42">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="N42">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
         <v>1.42</v>
@@ -5286,7 +5286,7 @@
         <v>2.15</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE42">
         <v>1.53</v>
@@ -5318,13 +5318,13 @@
         <v>166</v>
       </c>
       <c r="F43">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="G43">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="H43">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5339,10 +5339,10 @@
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N43">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5422,13 +5422,13 @@
         <v>167</v>
       </c>
       <c r="F44">
-        <v>6.2</v>
+        <v>6.55</v>
       </c>
       <c r="G44">
-        <v>3.98</v>
+        <v>4.24</v>
       </c>
       <c r="H44">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -5443,10 +5443,10 @@
         <v>3.4</v>
       </c>
       <c r="M44">
+        <v>1.92</v>
+      </c>
+      <c r="N44">
         <v>1.88</v>
-      </c>
-      <c r="N44">
-        <v>1.83</v>
       </c>
       <c r="O44">
         <v>1.37</v>
@@ -5494,7 +5494,7 @@
         <v>1.41</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE44">
         <v>1.38</v>
@@ -5526,13 +5526,13 @@
         <v>168</v>
       </c>
       <c r="F45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G45">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="H45">
-        <v>4.13</v>
+        <v>4.28</v>
       </c>
       <c r="I45">
         <v>1.04</v>
@@ -5547,10 +5547,10 @@
         <v>2.71</v>
       </c>
       <c r="M45">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="N45">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="O45">
         <v>1.48</v>
@@ -5610,7 +5610,7 @@
         <v>2.85</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5630,13 +5630,13 @@
         <v>169</v>
       </c>
       <c r="F46">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="G46">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="H46">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -5651,7 +5651,7 @@
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="N46">
         <v>1.71</v>
@@ -5702,7 +5702,7 @@
         <v>1.51</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE46">
         <v>1.57</v>
@@ -5734,13 +5734,13 @@
         <v>170</v>
       </c>
       <c r="F47">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="G47">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H47">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -5838,13 +5838,13 @@
         <v>171</v>
       </c>
       <c r="F48">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="G48">
         <v>3.5</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5859,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N48">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5942,13 +5942,13 @@
         <v>172</v>
       </c>
       <c r="F49">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="G49">
         <v>4.5</v>
       </c>
       <c r="H49">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I49">
         <v>1.03</v>
@@ -5963,10 +5963,10 @@
         <v>4.33</v>
       </c>
       <c r="M49">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="N49">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O49">
         <v>1.3</v>
@@ -6046,13 +6046,13 @@
         <v>173</v>
       </c>
       <c r="F50">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="G50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H50">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I50">
         <v>1.08</v>
@@ -6067,10 +6067,10 @@
         <v>2.62</v>
       </c>
       <c r="M50">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="N50">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O50">
         <v>1.49</v>
@@ -6150,13 +6150,13 @@
         <v>174</v>
       </c>
       <c r="F51">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="G51">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H51">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I51">
         <v>1.06</v>
@@ -6171,10 +6171,10 @@
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N51">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
         <v>1.44</v>
@@ -6257,10 +6257,10 @@
         <v>2.25</v>
       </c>
       <c r="G52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H52">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I52">
         <v>1.05</v>
@@ -6275,10 +6275,10 @@
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="N52">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="O52">
         <v>1.44</v>
@@ -6361,10 +6361,10 @@
         <v>2.15</v>
       </c>
       <c r="G53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I53">
         <v>1.07</v>
@@ -6379,10 +6379,10 @@
         <v>2.95</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N53">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O53">
         <v>1.46</v>
@@ -6462,13 +6462,13 @@
         <v>177</v>
       </c>
       <c r="F54">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="G54">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="H54">
-        <v>2.31</v>
+        <v>2.55</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="N54">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -6566,13 +6566,13 @@
         <v>178</v>
       </c>
       <c r="F55">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G55">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H55">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6587,10 +6587,10 @@
         <v>3.25</v>
       </c>
       <c r="M55">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="N55">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="O55">
         <v>1.41</v>
@@ -6774,13 +6774,13 @@
         <v>180</v>
       </c>
       <c r="F57">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G57">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="H57">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>1.05</v>
@@ -6795,10 +6795,10 @@
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="O57">
         <v>1.32</v>
@@ -6881,10 +6881,10 @@
         <v>1.3</v>
       </c>
       <c r="G58">
-        <v>4.98</v>
+        <v>4.7</v>
       </c>
       <c r="H58">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="I58">
         <v>0</v>

--- a/Jogos_do_Dia/2023-02-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1102,10 +1102,10 @@
         <v>1.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>1.55</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>127</v>
       </c>
       <c r="F4">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1283,10 +1283,10 @@
         <v>4.65</v>
       </c>
       <c r="M4">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="N4">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
         <v>1.29</v>
@@ -1310,10 +1310,10 @@
         <v>1.88</v>
       </c>
       <c r="V4">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
         <v>1.96</v>
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G5">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1387,10 +1387,10 @@
         <v>2.75</v>
       </c>
       <c r="M5">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="N5">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1414,10 +1414,10 @@
         <v>1.8</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>1.49</v>
       </c>
       <c r="L8">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="M8">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="O8">
         <v>1.56</v>
@@ -1782,13 +1782,13 @@
         <v>132</v>
       </c>
       <c r="F9">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G9">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="I9">
         <v>1.06</v>
@@ -1803,10 +1803,10 @@
         <v>3.3</v>
       </c>
       <c r="M9">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="N9">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -2115,10 +2115,10 @@
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
         <v>1.36</v>
@@ -2127,10 +2127,10 @@
         <v>3</v>
       </c>
       <c r="Q12">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R12">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S12">
         <v>1.47</v>
@@ -2157,13 +2157,13 @@
         <v>3.06</v>
       </c>
       <c r="AA12">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AB12">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC12">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AD12">
         <v>1.23</v>
@@ -2172,7 +2172,7 @@
         <v>1.42</v>
       </c>
       <c r="AF12">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="AG12">
         <v>2.19</v>
@@ -2219,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="N13">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
         <v>1.33</v>
@@ -2231,10 +2231,10 @@
         <v>3.25</v>
       </c>
       <c r="Q13">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R13">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
         <v>1.61</v>
@@ -2264,10 +2264,10 @@
         <v>2.48</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC13">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AD13">
         <v>1.29</v>
@@ -2326,7 +2326,7 @@
         <v>1.72</v>
       </c>
       <c r="N14">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
         <v>1.33</v>
@@ -2365,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="AA14">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AB14">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC14">
         <v>2.25</v>
@@ -2427,10 +2427,10 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="N15">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
         <v>1.33</v>
@@ -2439,10 +2439,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R15">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
         <v>1.28</v>
@@ -2469,13 +2469,13 @@
         <v>3.08</v>
       </c>
       <c r="AA15">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AB15">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AC15">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AD15">
         <v>1.18</v>
@@ -2484,7 +2484,7 @@
         <v>1.35</v>
       </c>
       <c r="AF15">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AG15">
         <v>2.02</v>
@@ -2531,10 +2531,10 @@
         <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N16">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="O16">
         <v>1.34</v>
@@ -2635,10 +2635,10 @@
         <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O17">
         <v>1.35</v>
@@ -2739,10 +2739,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="N18">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="O18">
         <v>1.33</v>
@@ -2843,10 +2843,10 @@
         <v>3.72</v>
       </c>
       <c r="M19">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="O19">
         <v>1.34</v>
@@ -2947,10 +2947,10 @@
         <v>2.75</v>
       </c>
       <c r="M20">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
         <v>1.44</v>
@@ -3030,10 +3030,10 @@
         <v>144</v>
       </c>
       <c r="F21">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G21">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="H21">
         <v>8.5</v>
@@ -3051,10 +3051,10 @@
         <v>3.1</v>
       </c>
       <c r="M21">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="N21">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="O21">
         <v>1.44</v>
@@ -3155,10 +3155,10 @@
         <v>4.33</v>
       </c>
       <c r="M22">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N22">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
         <v>1.3</v>
@@ -3167,10 +3167,10 @@
         <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R22">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S22">
         <v>1.25</v>
@@ -3200,10 +3200,10 @@
         <v>1.57</v>
       </c>
       <c r="AB22">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC22">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AD22">
         <v>1.15</v>
@@ -3259,7 +3259,7 @@
         <v>2.65</v>
       </c>
       <c r="M23">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="N23">
         <v>1.52</v>
@@ -4198,7 +4198,7 @@
         <v>1.75</v>
       </c>
       <c r="N32">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>1.35</v>
@@ -4391,43 +4391,43 @@
         <v>3.2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M34">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="N34">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V34">
         <v>2.64</v>
@@ -4445,28 +4445,28 @@
         <v>3.15</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4599,43 +4599,43 @@
         <v>1.53</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="N36">
-        <v>2.43</v>
+        <v>2.51</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R36">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V36">
         <v>1.38</v>
@@ -4659,22 +4659,22 @@
         <v>8.5</v>
       </c>
       <c r="AC36">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF36">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AG36">
         <v>2.19</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -4715,10 +4715,10 @@
         <v>4.33</v>
       </c>
       <c r="M37">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="N37">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="O37">
         <v>1.3</v>
@@ -4798,13 +4798,13 @@
         <v>161</v>
       </c>
       <c r="F38">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="G38">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="H38">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I38">
         <v>1.08</v>
@@ -4819,10 +4819,10 @@
         <v>2.75</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="N38">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="O38">
         <v>1.44</v>
@@ -4902,13 +4902,13 @@
         <v>162</v>
       </c>
       <c r="F39">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H39">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="I39">
         <v>1.1</v>
@@ -4923,7 +4923,7 @@
         <v>2.75</v>
       </c>
       <c r="M39">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="N39">
         <v>1.58</v>
@@ -5006,13 +5006,13 @@
         <v>163</v>
       </c>
       <c r="F40">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="G40">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="H40">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5131,10 +5131,10 @@
         <v>4.33</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="N41">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
         <v>1.32</v>
@@ -5214,13 +5214,13 @@
         <v>165</v>
       </c>
       <c r="F42">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="G42">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H42">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="I42">
         <v>1.03</v>
@@ -5235,10 +5235,10 @@
         <v>3.04</v>
       </c>
       <c r="M42">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="N42">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O42">
         <v>1.42</v>
@@ -5318,13 +5318,13 @@
         <v>166</v>
       </c>
       <c r="F43">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G43">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5339,10 +5339,10 @@
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N43">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5422,13 +5422,13 @@
         <v>167</v>
       </c>
       <c r="F44">
-        <v>6.55</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="H44">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -5443,7 +5443,7 @@
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="N44">
         <v>1.88</v>
@@ -5529,10 +5529,10 @@
         <v>1.85</v>
       </c>
       <c r="G45">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="H45">
-        <v>4.28</v>
+        <v>4.1</v>
       </c>
       <c r="I45">
         <v>1.04</v>
@@ -5547,10 +5547,10 @@
         <v>2.71</v>
       </c>
       <c r="M45">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="N45">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="O45">
         <v>1.48</v>
@@ -5630,13 +5630,13 @@
         <v>169</v>
       </c>
       <c r="F46">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="G46">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="H46">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -5651,7 +5651,7 @@
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="N46">
         <v>1.71</v>
@@ -5734,10 +5734,10 @@
         <v>170</v>
       </c>
       <c r="F47">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="G47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H47">
         <v>2.25</v>
@@ -5859,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N48">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v>2.62</v>
       </c>
       <c r="M50">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O50">
         <v>1.49</v>
@@ -6171,7 +6171,7 @@
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>1.75</v>
@@ -6379,10 +6379,10 @@
         <v>2.95</v>
       </c>
       <c r="M53">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="O53">
         <v>1.46</v>
@@ -6462,13 +6462,13 @@
         <v>177</v>
       </c>
       <c r="F54">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="G54">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="H54">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="N54">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -6566,13 +6566,13 @@
         <v>178</v>
       </c>
       <c r="F55">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="G55">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="H55">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6587,10 +6587,10 @@
         <v>3.25</v>
       </c>
       <c r="M55">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="N55">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="O55">
         <v>1.41</v>
@@ -6774,13 +6774,13 @@
         <v>180</v>
       </c>
       <c r="F57">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G57">
-        <v>3.88</v>
+        <v>3.74</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I57">
         <v>1.05</v>
@@ -6795,10 +6795,10 @@
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="N57">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="O57">
         <v>1.32</v>
@@ -6878,13 +6878,13 @@
         <v>181</v>
       </c>
       <c r="F58">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G58">
-        <v>4.7</v>
+        <v>4.58</v>
       </c>
       <c r="H58">
-        <v>8.75</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N58">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O58">
         <v>0</v>
